--- a/Results_and_scripts_ps/nucleation_dev/Results.xlsx
+++ b/Results_and_scripts_ps/nucleation_dev/Results.xlsx
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results_and_scripts_ps/nucleation_dev/Results.xlsx
+++ b/Results_and_scripts_ps/nucleation_dev/Results.xlsx
@@ -64,6 +64,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +406,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,7 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="1">
@@ -722,7 +728,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.111</v>
       </c>
       <c r="G20">
@@ -739,7 +745,7 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.111</v>
       </c>
       <c r="G21" s="1">
@@ -756,7 +762,7 @@
       <c r="D22">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>1.11E-2</v>
       </c>
       <c r="G22">
@@ -773,7 +779,7 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>1.11E-2</v>
       </c>
       <c r="G23" s="1">
@@ -790,7 +796,7 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="G24">
@@ -807,7 +813,7 @@
       <c r="D25">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="G25" s="1">
@@ -824,7 +830,7 @@
       <c r="D26">
         <v>9</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1.111E-4</v>
       </c>
       <c r="G26">
@@ -841,7 +847,7 @@
       <c r="D27">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>1.111E-4</v>
       </c>
       <c r="G27" s="1">
@@ -858,7 +864,7 @@
       <c r="D28">
         <v>12</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>1.111E-5</v>
       </c>
       <c r="G28" s="1">
@@ -875,7 +881,7 @@
       <c r="D29">
         <v>17</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>1.11E-2</v>
       </c>
       <c r="G29">
@@ -892,7 +898,7 @@
       <c r="D30">
         <v>18</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>1.11E-2</v>
       </c>
       <c r="G30" s="1">
@@ -907,6 +913,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results_and_scripts_ps/nucleation_dev/Results.xlsx
+++ b/Results_and_scripts_ps/nucleation_dev/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Epäonnistuneet</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>gas_source</t>
+  </si>
+  <si>
+    <t>vastaava indeksi</t>
+  </si>
+  <si>
+    <t>Onnistuneet uudella versiolla</t>
+  </si>
+  <si>
+    <t>vanha indeksi</t>
+  </si>
+  <si>
+    <t>tiedostonimi</t>
+  </si>
+  <si>
+    <t>Epäonnistuneet uudella versiolla</t>
+  </si>
+  <si>
+    <t>temp_20130702T184610</t>
+  </si>
+  <si>
+    <t>temp_20130702T212345</t>
+  </si>
+  <si>
+    <t>temp_20130703T000055</t>
+  </si>
+  <si>
+    <t>temp_20130703T022159</t>
+  </si>
+  <si>
+    <t>temp_20130703T045400</t>
+  </si>
+  <si>
+    <t>temp_20130703T061429</t>
+  </si>
+  <si>
+    <t>temp_20130703T085244</t>
   </si>
 </sst>
 </file>
@@ -65,8 +101,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,12 +453,12 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -443,8 +480,11 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -464,7 +504,7 @@
         <v>146620</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>11</v>
       </c>
@@ -484,7 +524,7 @@
         <v>146620</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>13</v>
       </c>
@@ -503,8 +543,11 @@
       <c r="I6" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>14</v>
       </c>
@@ -523,8 +566,11 @@
       <c r="I7" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>15</v>
       </c>
@@ -543,8 +589,11 @@
       <c r="I8" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>16</v>
       </c>
@@ -563,8 +612,11 @@
       <c r="I9" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>19</v>
       </c>
@@ -583,8 +635,11 @@
       <c r="I10" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>20</v>
       </c>
@@ -603,8 +658,11 @@
       <c r="I11" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>21</v>
       </c>
@@ -623,8 +681,11 @@
       <c r="I12" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>22</v>
       </c>
@@ -643,8 +704,11 @@
       <c r="I13" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>23</v>
       </c>
@@ -663,8 +727,11 @@
       <c r="I14" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>24</v>
       </c>
@@ -683,8 +750,17 @@
       <c r="I15" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -706,8 +782,9 @@
       <c r="I18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>2</v>
       </c>
@@ -723,8 +800,9 @@
       <c r="I19" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>3</v>
       </c>
@@ -740,8 +818,9 @@
       <c r="I20" s="1">
         <v>147000</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>4</v>
       </c>
@@ -757,8 +836,9 @@
       <c r="I21" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>5</v>
       </c>
@@ -774,8 +854,9 @@
       <c r="I22" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>6</v>
       </c>
@@ -791,8 +872,9 @@
       <c r="I23" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>7</v>
       </c>
@@ -808,8 +890,9 @@
       <c r="I24" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>8</v>
       </c>
@@ -825,8 +908,9 @@
       <c r="I25" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>9</v>
       </c>
@@ -842,8 +926,9 @@
       <c r="I26" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>10</v>
       </c>
@@ -859,8 +944,9 @@
       <c r="I27" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>12</v>
       </c>
@@ -876,8 +962,9 @@
       <c r="I28" s="1">
         <v>146620</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>17</v>
       </c>
@@ -893,8 +980,11 @@
       <c r="I29" s="1">
         <v>260650000</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>18</v>
       </c>
@@ -909,6 +999,118 @@
       </c>
       <c r="I30" s="1">
         <v>260650000</v>
+      </c>
+      <c r="J30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
